--- a/Documentação/Tabela POO.xlsx
+++ b/Documentação/Tabela POO.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\P2_2014_2015\EI\Aula 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\EI\1ºAno\2ºSemestre\P2\Projeto-P2-2016-\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="48" windowWidth="10248" windowHeight="8124" tabRatio="903"/>
+    <workbookView xWindow="-30" yWindow="45" windowWidth="10245" windowHeight="8130" tabRatio="238"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="29" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>Atributos</t>
   </si>
@@ -34,32 +34,130 @@
   </si>
   <si>
     <t>SuperClasses/Interfaces</t>
+  </si>
+  <si>
+    <t>Jogo</t>
+  </si>
+  <si>
+    <t>PainelPrincipal</t>
+  </si>
+  <si>
+    <t>PainelMacas</t>
+  </si>
+  <si>
+    <t>PainelPontuacao</t>
+  </si>
+  <si>
+    <t>painelPrincipal</t>
+  </si>
+  <si>
+    <t>painelMacas</t>
+  </si>
+  <si>
+    <t>painelPontuacao</t>
+  </si>
+  <si>
+    <t>PainelMovimentosEstrelas</t>
+  </si>
+  <si>
+    <t>painelMovimentosEstrelas</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>jogo</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Maca</t>
+  </si>
+  <si>
+    <t>Cesto</t>
+  </si>
+  <si>
+    <t>SupAr</t>
+  </si>
+  <si>
+    <t>SupAgua</t>
+  </si>
+  <si>
+    <t>SupGelo</t>
+  </si>
+  <si>
+    <t>Terra</t>
+  </si>
+  <si>
+    <t>Pedra</t>
+  </si>
+  <si>
+    <t>Aco</t>
+  </si>
+  <si>
+    <t>Roseira</t>
+  </si>
+  <si>
+    <t>Espinho</t>
+  </si>
+  <si>
+    <t>Phoizontal</t>
+  </si>
+  <si>
+    <t>PVertical</t>
+  </si>
+  <si>
+    <t>Pcruz</t>
+  </si>
+  <si>
+    <t>Pestrela</t>
+  </si>
+  <si>
+    <t>PArcoIris</t>
+  </si>
+  <si>
+    <t>PMovimentoExtra</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>iniciar()</t>
+  </si>
+  <si>
+    <t>TipoAnimal</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>imagem</t>
+  </si>
+  <si>
+    <t>iterar()</t>
+  </si>
+  <si>
+    <t>explodir()</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>quantMacas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -69,14 +167,22 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -138,49 +244,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -270,7 +373,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -345,6 +448,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -380,6 +500,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,19 +695,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:AE26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="31" width="4.77734375" style="5" customWidth="1"/>
-    <col min="32" max="16384" width="8.77734375" style="5"/>
+    <col min="1" max="1" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="31" width="4.7109375" style="4" customWidth="1"/>
+    <col min="32" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -604,35 +743,79 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:31" ht="143.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -641,7 +824,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>0</v>
@@ -676,10 +859,16 @@
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
     </row>
-    <row r="4" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -709,17 +898,23 @@
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
     </row>
-    <row r="5" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -742,10 +937,16 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
     </row>
-    <row r="6" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -775,10 +976,16 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
     </row>
-    <row r="7" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -808,14 +1015,26 @@
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
     </row>
-    <row r="8" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -841,15 +1060,21 @@
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
     </row>
-    <row r="9" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -860,10 +1085,18 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
+      <c r="S9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
@@ -874,31 +1107,77 @@
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
@@ -907,11 +1186,17 @@
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
     </row>
-    <row r="11" spans="1:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -940,7 +1225,7 @@
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
     </row>
-    <row r="12" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -973,7 +1258,7 @@
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
     </row>
-    <row r="13" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
@@ -1006,7 +1291,7 @@
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
     </row>
-    <row r="14" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -1039,7 +1324,7 @@
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
@@ -1072,7 +1357,7 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
         <v>1</v>
@@ -1107,9 +1392,13 @@
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
     </row>
-    <row r="17" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -1140,15 +1429,19 @@
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
     </row>
-    <row r="18" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -1173,9 +1466,13 @@
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
     </row>
-    <row r="19" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -1206,7 +1503,7 @@
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
     </row>
-    <row r="20" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -1239,7 +1536,7 @@
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
     </row>
-    <row r="21" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -1272,15 +1569,15 @@
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
     </row>
-    <row r="22" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -1305,14 +1602,14 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
     </row>
-    <row r="23" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -1338,7 +1635,7 @@
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
     </row>
-    <row r="24" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
@@ -1350,7 +1647,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="14"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -1360,7 +1657,7 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
-      <c r="V24" s="14"/>
+      <c r="V24" s="13"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
@@ -1371,19 +1668,19 @@
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
     </row>
-    <row r="25" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="14"/>
+      <c r="L25" s="13"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
@@ -1393,7 +1690,7 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
-      <c r="V25" s="14"/>
+      <c r="V25" s="13"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
@@ -1404,19 +1701,19 @@
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
     </row>
-    <row r="26" spans="1:31" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="14"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
@@ -1426,7 +1723,7 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
-      <c r="V26" s="14"/>
+      <c r="V26" s="13"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>

--- a/Documentação/Tabela POO.xlsx
+++ b/Documentação/Tabela POO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="65">
   <si>
     <t>Atributos</t>
   </si>
@@ -102,18 +102,9 @@
     <t>Espinho</t>
   </si>
   <si>
-    <t>Phoizontal</t>
-  </si>
-  <si>
     <t>PVertical</t>
   </si>
   <si>
-    <t>Pcruz</t>
-  </si>
-  <si>
-    <t>Pestrela</t>
-  </si>
-  <si>
     <t>PArcoIris</t>
   </si>
   <si>
@@ -147,7 +138,82 @@
     <t>int</t>
   </si>
   <si>
-    <t>quantMacas</t>
+    <t>cair()</t>
+  </si>
+  <si>
+    <t>PHoizontal</t>
+  </si>
+  <si>
+    <t>PCruz</t>
+  </si>
+  <si>
+    <t>PEstrela</t>
+  </si>
+  <si>
+    <t>x?</t>
+  </si>
+  <si>
+    <t>grelha</t>
+  </si>
+  <si>
+    <t>numMovDisp</t>
+  </si>
+  <si>
+    <t>numEstrelas</t>
+  </si>
+  <si>
+    <t>pontuacao</t>
+  </si>
+  <si>
+    <t>grelhaDeJogo</t>
+  </si>
+  <si>
+    <t>[][]</t>
+  </si>
+  <si>
+    <t>quantMacasQueFalta</t>
+  </si>
+  <si>
+    <t>quantMacasNoJogo</t>
+  </si>
+  <si>
+    <t>AnimalEnimigoPoderMacaCesto</t>
+  </si>
+  <si>
+    <t>elemento</t>
+  </si>
+  <si>
+    <t>incrementarPontuacao()</t>
+  </si>
+  <si>
+    <t>desaparecer()</t>
+  </si>
+  <si>
+    <t>getPontuacao()</t>
+  </si>
+  <si>
+    <t>setPontuacao()</t>
+  </si>
+  <si>
+    <t>getQuantMacasEmFalta</t>
+  </si>
+  <si>
+    <t>setQuantMacasEmFalta</t>
+  </si>
+  <si>
+    <t>PMovimentoExtra BOOLEAN NO ANIMAL OU CLASSE ???</t>
+  </si>
+  <si>
+    <t>getEstrelas()</t>
+  </si>
+  <si>
+    <t>setEstrelas()</t>
+  </si>
+  <si>
+    <t>getNumMovDisp()</t>
+  </si>
+  <si>
+    <t>setNumMovDisp()</t>
   </si>
 </sst>
 </file>
@@ -188,7 +254,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +283,26 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,6 +325,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -248,7 +345,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,6 +383,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="C1" xfId="1"/>
@@ -693,11 +829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE213"/>
+  <dimension ref="A1:AE220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -799,22 +935,22 @@
         <v>26</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -859,44 +995,44 @@
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
+      <c r="C4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -937,44 +1073,44 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
+      <c r="C6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -1015,57 +1151,57 @@
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1107,97 +1243,95 @@
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
+    <row r="10" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -1225,47 +1359,63 @@
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
+    <row r="12" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -1291,217 +1441,231 @@
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
+    <row r="14" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+    </row>
+    <row r="15" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+    </row>
+    <row r="16" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+    </row>
+    <row r="17" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+    </row>
+    <row r="18" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+    </row>
+    <row r="19" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1521,111 +1685,137 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+    </row>
+    <row r="22" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="13"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
+      <c r="Q23" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
+      <c r="U23" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
@@ -1635,63 +1825,105 @@
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
+    <row r="24" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="H25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="13"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="11"/>
+      <c r="S25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
@@ -1701,61 +1933,538 @@
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-    </row>
-    <row r="27" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+    </row>
+    <row r="28" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+    </row>
+    <row r="30" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+    </row>
+    <row r="31" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+    </row>
+    <row r="32" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+    </row>
+    <row r="33" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+    </row>
+    <row r="34" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+    </row>
+    <row r="35" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+    </row>
+    <row r="36" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+    </row>
+    <row r="37" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+    </row>
+    <row r="38" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+    </row>
+    <row r="39" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+    </row>
+    <row r="41" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I46" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1921,6 +2630,13 @@
     <row r="211" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="212" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="213" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentação/Tabela POO.xlsx
+++ b/Documentação/Tabela POO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="45" windowWidth="10245" windowHeight="8130" tabRatio="238" firstSheet="2" activeTab="3"/>
+    <workbookView minimized="1" xWindow="-30" yWindow="45" windowWidth="10245" windowHeight="8130" tabRatio="238" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="29" state="hidden" r:id="rId1"/>
-    <sheet name="1" sheetId="31" state="hidden" r:id="rId2"/>
+    <sheet name="1" sheetId="31" r:id="rId2"/>
     <sheet name="2" sheetId="32" r:id="rId3"/>
-    <sheet name="2 (2)" sheetId="34" r:id="rId4"/>
+    <sheet name="3" sheetId="34" r:id="rId4"/>
+    <sheet name="4" sheetId="36" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="102">
   <si>
     <t>Atributos</t>
   </si>
@@ -308,6 +309,27 @@
   <si>
     <t>PainelValorImagem</t>
   </si>
+  <si>
+    <t>tipoAnimal</t>
+  </si>
+  <si>
+    <t>posicao</t>
+  </si>
+  <si>
+    <t>atualizar()</t>
+  </si>
+  <si>
+    <t>getElemento()</t>
+  </si>
+  <si>
+    <t>ELEMENTO????</t>
+  </si>
+  <si>
+    <t>getPosicao()</t>
+  </si>
+  <si>
+    <t>setPosicao()</t>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +369,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +434,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -456,7 +484,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,6 +594,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -729,23 +782,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -781,23 +817,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3012,9 +3031,9 @@
   <dimension ref="A1:AF224"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B16" sqref="B16"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5045,8 +5064,8 @@
   <dimension ref="A1:AE223"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25:G27"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6818,9 +6837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6831,7 +6850,7 @@
     <col min="32" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -6841,13 +6860,13 @@
         <v>74</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="33" t="s">
@@ -6876,7 +6895,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="143.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7322,13 +7341,13 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="16"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
@@ -8566,4 +8585,2119 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE223"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35:N35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="31" width="4.7109375" style="4" customWidth="1"/>
+    <col min="32" max="16384" width="8.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" spans="1:31" ht="143.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+    </row>
+    <row r="4" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+    </row>
+    <row r="6" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+    </row>
+    <row r="8" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+    </row>
+    <row r="10" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+    </row>
+    <row r="12" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+    </row>
+    <row r="13" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+    </row>
+    <row r="14" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+    </row>
+    <row r="17" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+    </row>
+    <row r="18" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+    </row>
+    <row r="19" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+    </row>
+    <row r="20" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+    </row>
+    <row r="21" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+    </row>
+    <row r="22" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+    </row>
+    <row r="23" spans="1:31" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+    </row>
+    <row r="25" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+    </row>
+    <row r="27" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+    </row>
+    <row r="29" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+    </row>
+    <row r="31" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+    </row>
+    <row r="33" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+    </row>
+    <row r="34" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+    </row>
+    <row r="35" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+    </row>
+    <row r="36" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+    </row>
+    <row r="37" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+    </row>
+    <row r="38" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+    </row>
+    <row r="39" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
+    </row>
+    <row r="40" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+    </row>
+    <row r="41" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+    </row>
+    <row r="42" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+    </row>
+    <row r="43" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+    </row>
+    <row r="44" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+    </row>
+    <row r="45" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+    </row>
+    <row r="46" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+    </row>
+    <row r="47" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+    </row>
+    <row r="48" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+    </row>
+    <row r="49" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+    </row>
+    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+    </row>
+    <row r="51" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:31" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/Documentação/Tabela POO.xlsx
+++ b/Documentação/Tabela POO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-30" yWindow="45" windowWidth="10245" windowHeight="8130" tabRatio="238" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-30" yWindow="45" windowWidth="10245" windowHeight="8130" tabRatio="238" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="29" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="104">
   <si>
     <t>Atributos</t>
   </si>
@@ -329,6 +329,12 @@
   </si>
   <si>
     <t>setPosicao()</t>
+  </si>
+  <si>
+    <t>incrementarValor(int)</t>
+  </si>
+  <si>
+    <t>incrementarValor()</t>
   </si>
 </sst>
 </file>
@@ -8593,7 +8599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35:N35"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9537,17 +9543,17 @@
         <v>30</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="23"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
@@ -9580,13 +9586,15 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
+      <c r="E26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -10391,13 +10399,19 @@
       <c r="AE46" s="12"/>
     </row>
     <row r="47" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
